--- a/techniqo/data_new_ticker/GUJGASLTD.xlsx
+++ b/techniqo/data_new_ticker/GUJGASLTD.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1333"/>
+  <dimension ref="A1:G1335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47041,6 +47041,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1334" t="n">
+        <v>304.8</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>303.9</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>304.7</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>579548</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1335" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>308.75</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>410999</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/GUJGASLTD.xlsx
+++ b/techniqo/data_new_ticker/GUJGASLTD.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1335"/>
+  <dimension ref="A1:G1337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47091,6 +47091,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1336" t="n">
+        <v>301.95</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>307</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>301.2</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>304.65</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>401926</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1337" t="n">
+        <v>308.85</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>317</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>2841490</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
